--- a/data/nyj_positions.xlsx
+++ b/data/nyj_positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clint\Documents\nss\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B266F5-7331-4049-9E23-FC1C9BB9EB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277FB46-2941-4515-B4A0-499E1DEE009C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="5" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5A31C3-9D5F-4BDD-99A9-C0CB21C3084D}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7568,8 +7568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE80EC-F783-4ECD-A6E9-11898BE9D05F}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
